--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3706.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3706.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.291910962039919</v>
+        <v>1.634144425392151</v>
       </c>
       <c r="B1">
-        <v>2.447328307677757</v>
+        <v>4.041515827178955</v>
       </c>
       <c r="C1">
-        <v>6.94801605475753</v>
+        <v>3.865645885467529</v>
       </c>
       <c r="D1">
-        <v>2.323506053169197</v>
+        <v>1.64033579826355</v>
       </c>
       <c r="E1">
-        <v>1.079877442338389</v>
+        <v>1.062463521957397</v>
       </c>
     </row>
   </sheetData>
